--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101963.2208490938</v>
+        <v>18508014.93063823</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101963.2208490938</v>
+        <v>18508014.93063823</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>277471.8648199975</v>
+        <v>33561565.33052482</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>277471.8648199975</v>
+        <v>33561565.33052482</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1603290393.021942</v>
+        <v>20240832.20795416</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19013.43230226059</v>
+        <v>551660.7398221381</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37346.59195681475</v>
+        <v>965406.2946887426</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>55640.70116995902</v>
+        <v>1379151.849555346</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>74219.57695102879</v>
+        <v>1696851.33154638</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>92944.55175275152</v>
+        <v>2041512.586135814</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>111298.8053125924</v>
+        <v>2464062.981080093</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>129504.7382065468</v>
+        <v>2867006.096024294</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>147710.6711005013</v>
+        <v>3269949.210968495</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>166307.6414208038</v>
+        <v>3591249.506267058</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>184586.9138725208</v>
+        <v>4028599.720856508</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>202698.7667664772</v>
+        <v>4442237.715800523</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>220810.8058667312</v>
+        <v>4855875.71074448</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238922.4725543903</v>
+        <v>5269513.705688449</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>257501.9458905868</v>
+        <v>5587249.040986963</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>277006.9884791264</v>
+        <v>5866530.216387996</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>50.00000000002647</v>
@@ -27055,10 +27055,10 @@
         <v>22.00000000008492</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>27</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
